--- a/8.xlsx
+++ b/8.xlsx
@@ -60,7 +60,7 @@
     <t>Period</t>
   </si>
   <si>
-    <t>2005-Q4</t>
+    <t>2005-Q1</t>
   </si>
   <si>
     <t>Dimension</t>
@@ -173,430 +173,430 @@
     <t>Annual change (%)</t>
   </si>
   <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
+    <t>2004-Q3</t>
+  </si>
+  <si>
+    <t>2004-Q4</t>
   </si>
   <si>
     <t>Borrowers outside United States</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.3P.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Of which: emerging market and developing economies</t>
   </si>
   <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.4T.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Africa and Middle East</t>
   </si>
   <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4W.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.4W.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4W.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Saudi Arabia</t>
   </si>
   <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.SA.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.SA.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.SA.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>South Africa</t>
   </si>
   <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.ZA.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.ZA.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.ZA.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Emerging Asia and Pacific</t>
   </si>
   <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4Y.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.4Y.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4Y.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>China</t>
   </si>
   <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.CN.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.CN.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.CN.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Chinese Taipei</t>
   </si>
   <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.TW.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.TW.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.TW.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>India</t>
   </si>
   <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.IN.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.IN.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.IN.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Indonesia</t>
   </si>
   <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.ID.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.ID.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.ID.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Korea</t>
   </si>
   <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.KR.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.KR.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.KR.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Malaysia</t>
   </si>
   <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.MY.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.MY.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.MY.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Emerging Europe</t>
   </si>
   <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3C.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.3C.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3C.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Russia</t>
   </si>
   <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.RU.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.RU.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.RU.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Türkiye</t>
   </si>
   <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.TR.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.TR.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.TR.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Latin America</t>
   </si>
   <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4U.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.4U.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4U.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Argentina</t>
   </si>
   <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.AR.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.AR.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.AR.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Brazil</t>
   </si>
   <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.BR.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.BR.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.BR.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Chile</t>
   </si>
   <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.CL.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.CL.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.CL.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Mexico</t>
   </si>
   <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.MX.N.A.I.B.771.2005-Q4</t>
+    <t>Q.USD.MX.N.A.I.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.MX.N.A.I.B.771.2005-Q1</t>
   </si>
   <si>
     <t>By instrument</t>
@@ -605,118 +605,118 @@
     <t>Bank loans</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.B.I.G.771.2005-Q4</t>
+    <t>Q.USD.3P.N.B.I.G.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.B.I.G.771.2005-Q1</t>
   </si>
   <si>
     <t>Debt securities issues</t>
   </si>
   <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.N.A.I.D.771.2005-Q4</t>
+    <t>Q.USD.3P.N.A.I.D.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.N.A.I.D.771.2005-Q1</t>
   </si>
   <si>
     <t>Of which: non-financial borrowers</t>
   </si>
   <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.3P.P.A.I.D.771.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.B.I.G.771.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.N.A.I.D.771.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.4T.P.A.I.D.771.2005-Q4</t>
+    <t>Q.USD.3P.P.A.I.D.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.3P.P.A.I.D.771.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.B.I.G.771.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.N.A.I.D.771.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.4T.P.A.I.D.771.2005-Q1</t>
   </si>
   <si>
     <t>Memo: Borrowers in United States</t>
@@ -725,43 +725,43 @@
     <t>Non-financial borrowers</t>
   </si>
   <si>
-    <t>Q.USD.US.P.A.A.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.US.P.A.A.B.771.2005-Q4</t>
+    <t>Q.USD.US.P.A.A.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.US.P.A.A.B.771.2005-Q1</t>
   </si>
   <si>
     <t>Of which: government</t>
   </si>
   <si>
-    <t>Q.USD.US.G.A.A.B.USD.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.USD.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.USD.2005-Q4</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2005-Q2</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2005-Q3</t>
-  </si>
-  <si>
-    <t>Q.USD.US.G.A.A.B.771.2005-Q4</t>
+    <t>Q.USD.US.G.A.A.B.USD.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.USD.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.USD.2005-Q1</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2004-Q3</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2004-Q4</t>
+  </si>
+  <si>
+    <t>Q.USD.US.G.A.A.B.771.2005-Q1</t>
   </si>
 </sst>
 </file>
@@ -1418,22 +1418,22 @@
         <v>39</v>
       </c>
       <c r="B3">
-        <v>3553.730176</v>
+        <v>3272.513035</v>
       </c>
       <c r="C3">
-        <v>3671.127669</v>
+        <v>3400.339393</v>
       </c>
       <c r="D3">
-        <v>3790.165485</v>
+        <v>3499.552793</v>
       </c>
       <c r="E3">
-        <v>10.1</v>
+        <v>10.6</v>
       </c>
       <c r="F3">
-        <v>11.6</v>
+        <v>12.3</v>
       </c>
       <c r="G3">
-        <v>10.4</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1441,22 +1441,22 @@
         <v>46</v>
       </c>
       <c r="B4">
-        <v>1173.413454</v>
+        <v>1106.950237</v>
       </c>
       <c r="C4">
-        <v>1227.819134</v>
+        <v>1139.688097</v>
       </c>
       <c r="D4">
-        <v>1303.74611</v>
+        <v>1165.046989</v>
       </c>
       <c r="E4">
-        <v>5.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F4">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="G4">
-        <v>11.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1464,22 +1464,22 @@
         <v>53</v>
       </c>
       <c r="B5">
-        <v>167.56134</v>
+        <v>148.452034</v>
       </c>
       <c r="C5">
-        <v>185.848138</v>
+        <v>167.247832</v>
       </c>
       <c r="D5">
-        <v>200.754452</v>
+        <v>166.304168</v>
       </c>
       <c r="E5">
-        <v>16.8</v>
+        <v>19.5</v>
       </c>
       <c r="F5">
-        <v>24</v>
+        <v>24.1</v>
       </c>
       <c r="G5">
-        <v>19.2</v>
+        <v>19.7</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1487,22 +1487,22 @@
         <v>60</v>
       </c>
       <c r="B6">
-        <v>9.455</v>
+        <v>9.502000000000001</v>
       </c>
       <c r="C6">
-        <v>9.734999999999999</v>
+        <v>8.471</v>
       </c>
       <c r="D6">
-        <v>11.232</v>
+        <v>9.657</v>
       </c>
       <c r="E6">
-        <v>5.4</v>
+        <v>7.4</v>
       </c>
       <c r="F6">
-        <v>2.4</v>
+        <v>-3</v>
       </c>
       <c r="G6">
-        <v>33</v>
+        <v>11.4</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1510,22 +1510,22 @@
         <v>67</v>
       </c>
       <c r="B7">
-        <v>6.963</v>
+        <v>7.157</v>
       </c>
       <c r="C7">
-        <v>6.982</v>
+        <v>6.968</v>
       </c>
       <c r="D7">
-        <v>7.182</v>
+        <v>6.92</v>
       </c>
       <c r="E7">
-        <v>-7.6</v>
+        <v>4.3</v>
       </c>
       <c r="F7">
-        <v>-2.8</v>
+        <v>3.4</v>
       </c>
       <c r="G7">
-        <v>1.8</v>
+        <v>9.6</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1533,22 +1533,22 @@
         <v>74</v>
       </c>
       <c r="B8">
-        <v>425.187871</v>
+        <v>391.390114</v>
       </c>
       <c r="C8">
-        <v>453.991356</v>
+        <v>399.203653</v>
       </c>
       <c r="D8">
-        <v>459.313042</v>
+        <v>407.374639</v>
       </c>
       <c r="E8">
-        <v>7.4</v>
+        <v>15.5</v>
       </c>
       <c r="F8">
-        <v>13.8</v>
+        <v>14</v>
       </c>
       <c r="G8">
-        <v>12.3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1556,22 +1556,22 @@
         <v>81</v>
       </c>
       <c r="B9">
-        <v>15.0768</v>
+        <v>12.3348</v>
       </c>
       <c r="C9">
-        <v>16.3108</v>
+        <v>13.0358</v>
       </c>
       <c r="D9">
-        <v>17.2788</v>
+        <v>14.0158</v>
       </c>
       <c r="E9">
-        <v>30.9</v>
+        <v>-5.6</v>
       </c>
       <c r="F9">
-        <v>27.5</v>
+        <v>7.5</v>
       </c>
       <c r="G9">
-        <v>28</v>
+        <v>-1.3</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1579,22 +1579,22 @@
         <v>88</v>
       </c>
       <c r="B10">
-        <v>44.95137</v>
+        <v>45.36506</v>
       </c>
       <c r="C10">
-        <v>43.47437</v>
+        <v>43.79644</v>
       </c>
       <c r="D10">
-        <v>40.56717</v>
+        <v>45.69212</v>
       </c>
       <c r="E10">
-        <v>-4.4</v>
+        <v>32.7</v>
       </c>
       <c r="F10">
-        <v>-4</v>
+        <v>18.5</v>
       </c>
       <c r="G10">
-        <v>-7.2</v>
+        <v>6.9</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1602,22 +1602,22 @@
         <v>95</v>
       </c>
       <c r="B11">
-        <v>14.04393</v>
+        <v>11.15343</v>
       </c>
       <c r="C11">
-        <v>15.26818</v>
+        <v>11.90493</v>
       </c>
       <c r="D11">
-        <v>15.9907</v>
+        <v>13.56193</v>
       </c>
       <c r="E11">
-        <v>26.5</v>
+        <v>23.4</v>
       </c>
       <c r="F11">
-        <v>36.7</v>
+        <v>34.8</v>
       </c>
       <c r="G11">
-        <v>34.5</v>
+        <v>36.6</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1625,22 +1625,22 @@
         <v>102</v>
       </c>
       <c r="B12">
-        <v>10.393</v>
+        <v>9.050000000000001</v>
       </c>
       <c r="C12">
-        <v>10.331</v>
+        <v>9.090999999999999</v>
       </c>
       <c r="D12">
-        <v>12.589</v>
+        <v>9.385999999999999</v>
       </c>
       <c r="E12">
-        <v>3.8</v>
+        <v>16.2</v>
       </c>
       <c r="F12">
-        <v>9.800000000000001</v>
+        <v>16.3</v>
       </c>
       <c r="G12">
-        <v>33.5</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1648,22 +1648,22 @@
         <v>109</v>
       </c>
       <c r="B13">
-        <v>56.489053</v>
+        <v>37.220395</v>
       </c>
       <c r="C13">
-        <v>59.315564</v>
+        <v>36.446674</v>
       </c>
       <c r="D13">
-        <v>59.252083</v>
+        <v>53.64708</v>
       </c>
       <c r="E13">
-        <v>8.6</v>
+        <v>4.6</v>
       </c>
       <c r="F13">
-        <v>10.6</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="G13">
-        <v>13.3</v>
+        <v>10.1</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1671,22 +1671,22 @@
         <v>116</v>
       </c>
       <c r="B14">
-        <v>22.470095</v>
+        <v>20.919731</v>
       </c>
       <c r="C14">
-        <v>23.711425</v>
+        <v>21.486784</v>
       </c>
       <c r="D14">
-        <v>23.595045</v>
+        <v>21.71855</v>
       </c>
       <c r="E14">
-        <v>13.9</v>
+        <v>0.8</v>
       </c>
       <c r="F14">
-        <v>10.3</v>
+        <v>6.8</v>
       </c>
       <c r="G14">
-        <v>6.8</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1694,22 +1694,22 @@
         <v>123</v>
       </c>
       <c r="B15">
-        <v>165.947266</v>
+        <v>144.978131</v>
       </c>
       <c r="C15">
-        <v>169.035258</v>
+        <v>154.687294</v>
       </c>
       <c r="D15">
-        <v>194.21883</v>
+        <v>162.767412</v>
       </c>
       <c r="E15">
+        <v>10.8</v>
+      </c>
+      <c r="F15">
+        <v>14</v>
+      </c>
+      <c r="G15">
         <v>13.6</v>
-      </c>
-      <c r="F15">
-        <v>16</v>
-      </c>
-      <c r="G15">
-        <v>24.3</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1717,22 +1717,22 @@
         <v>130</v>
       </c>
       <c r="B16">
-        <v>65.15888</v>
+        <v>62.61188</v>
       </c>
       <c r="C16">
-        <v>65.17229</v>
+        <v>65.48788</v>
       </c>
       <c r="D16">
-        <v>74.51129</v>
+        <v>65.55488</v>
       </c>
       <c r="E16">
-        <v>5.2</v>
+        <v>7.3</v>
       </c>
       <c r="F16">
-        <v>3.5</v>
+        <v>9.5</v>
       </c>
       <c r="G16">
-        <v>11.4</v>
+        <v>7.9</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1740,22 +1740,22 @@
         <v>137</v>
       </c>
       <c r="B17">
-        <v>50.949229</v>
+        <v>46.985333</v>
       </c>
       <c r="C17">
-        <v>50.804491</v>
+        <v>46.703622</v>
       </c>
       <c r="D17">
-        <v>56.670919</v>
+        <v>50.586467</v>
       </c>
       <c r="E17">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
       <c r="F17">
+        <v>9.1</v>
+      </c>
+      <c r="G17">
         <v>9.5</v>
-      </c>
-      <c r="G17">
-        <v>23.2</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1763,22 +1763,22 @@
         <v>144</v>
       </c>
       <c r="B18">
-        <v>414.716976</v>
+        <v>422.129959</v>
       </c>
       <c r="C18">
-        <v>418.944382</v>
+        <v>418.549319</v>
       </c>
       <c r="D18">
-        <v>449.459786</v>
+        <v>428.60077</v>
       </c>
       <c r="E18">
-        <v>-3.8</v>
+        <v>-1.1</v>
       </c>
       <c r="F18">
-        <v>-1.6</v>
+        <v>-2.2</v>
       </c>
       <c r="G18">
-        <v>2</v>
+        <v>-1.2</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1786,22 +1786,22 @@
         <v>151</v>
       </c>
       <c r="B19">
-        <v>43.271731</v>
+        <v>63.169601</v>
       </c>
       <c r="C19">
-        <v>43.46037</v>
+        <v>62.810569</v>
       </c>
       <c r="D19">
-        <v>43.256535</v>
+        <v>62.409646</v>
       </c>
       <c r="E19">
-        <v>-33.4</v>
+        <v>-10.1</v>
       </c>
       <c r="F19">
-        <v>-31.2</v>
+        <v>-9.699999999999999</v>
       </c>
       <c r="G19">
-        <v>-30.8</v>
+        <v>-7.6</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1809,22 +1809,22 @@
         <v>158</v>
       </c>
       <c r="B20">
-        <v>96.44840499999999</v>
+        <v>96.525964</v>
       </c>
       <c r="C20">
-        <v>97.30407</v>
+        <v>94.61309199999999</v>
       </c>
       <c r="D20">
-        <v>97.631018</v>
+        <v>96.281769</v>
       </c>
       <c r="E20">
-        <v>-3.8</v>
+        <v>-1.7</v>
       </c>
       <c r="F20">
-        <v>-0.4</v>
+        <v>-6</v>
       </c>
       <c r="G20">
-        <v>2.1</v>
+        <v>-5.7</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1832,22 +1832,22 @@
         <v>165</v>
       </c>
       <c r="B21">
-        <v>33.2487</v>
+        <v>32.1392</v>
       </c>
       <c r="C21">
-        <v>33.01899</v>
+        <v>31.7452</v>
       </c>
       <c r="D21">
-        <v>32.93499</v>
+        <v>32.3227</v>
       </c>
       <c r="E21">
-        <v>4.7</v>
+        <v>6.3</v>
       </c>
       <c r="F21">
-        <v>2.7</v>
+        <v>4.5</v>
       </c>
       <c r="G21">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1855,22 +1855,22 @@
         <v>172</v>
       </c>
       <c r="B22">
-        <v>89.683227</v>
+        <v>89.004408</v>
       </c>
       <c r="C22">
-        <v>87.279759</v>
+        <v>88.54154200000001</v>
       </c>
       <c r="D22">
-        <v>107.949348</v>
+        <v>91.051637</v>
       </c>
       <c r="E22">
-        <v>4.7</v>
+        <v>5.7</v>
       </c>
       <c r="F22">
-        <v>-2.5</v>
+        <v>4.5</v>
       </c>
       <c r="G22">
-        <v>-0.4</v>
+        <v>5.5</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1883,22 +1883,22 @@
         <v>39</v>
       </c>
       <c r="B24">
-        <v>3553.730176</v>
+        <v>3272.513035</v>
       </c>
       <c r="C24">
-        <v>3671.127669</v>
+        <v>3400.339393</v>
       </c>
       <c r="D24">
-        <v>3790.165485</v>
+        <v>3499.552793</v>
       </c>
       <c r="E24">
-        <v>10.1</v>
+        <v>10.6</v>
       </c>
       <c r="F24">
-        <v>11.6</v>
+        <v>12.3</v>
       </c>
       <c r="G24">
-        <v>10.4</v>
+        <v>9.9</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1906,22 +1906,22 @@
         <v>180</v>
       </c>
       <c r="B25">
-        <v>1869.254658</v>
+        <v>1671.501604</v>
       </c>
       <c r="C25">
-        <v>1963.371288</v>
+        <v>1767.82646</v>
       </c>
       <c r="D25">
-        <v>2025.239252</v>
+        <v>1832.285465</v>
       </c>
       <c r="E25">
-        <v>13</v>
+        <v>10.5</v>
       </c>
       <c r="F25">
-        <v>16.3</v>
+        <v>15.2</v>
       </c>
       <c r="G25">
-        <v>12.4</v>
+        <v>11.2</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1929,22 +1929,22 @@
         <v>187</v>
       </c>
       <c r="B26">
-        <v>1684.475518</v>
+        <v>1601.01143</v>
       </c>
       <c r="C26">
-        <v>1707.75638</v>
+        <v>1632.512933</v>
       </c>
       <c r="D26">
-        <v>1764.926233</v>
+        <v>1667.267328</v>
       </c>
       <c r="E26">
-        <v>7.1</v>
+        <v>10.8</v>
       </c>
       <c r="F26">
-        <v>6.7</v>
+        <v>9.4</v>
       </c>
       <c r="G26">
-        <v>8.1</v>
+        <v>8.5</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1952,22 +1952,22 @@
         <v>194</v>
       </c>
       <c r="B27">
-        <v>1002.904031</v>
+        <v>982.383673</v>
       </c>
       <c r="C27">
-        <v>1004.573425</v>
+        <v>995.64509</v>
       </c>
       <c r="D27">
-        <v>1012.31478</v>
+        <v>1007.160518</v>
       </c>
       <c r="E27">
-        <v>1.7</v>
+        <v>4.4</v>
       </c>
       <c r="F27">
-        <v>2.3</v>
+        <v>4.5</v>
       </c>
       <c r="G27">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1975,22 +1975,22 @@
         <v>46</v>
       </c>
       <c r="B28">
-        <v>1173.413454</v>
+        <v>1106.950237</v>
       </c>
       <c r="C28">
-        <v>1227.819134</v>
+        <v>1139.688097</v>
       </c>
       <c r="D28">
-        <v>1303.74611</v>
+        <v>1165.046989</v>
       </c>
       <c r="E28">
-        <v>5.1</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="F28">
-        <v>9.6</v>
+        <v>8.6</v>
       </c>
       <c r="G28">
-        <v>11.1</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1998,22 +1998,22 @@
         <v>180</v>
       </c>
       <c r="B29">
-        <v>677.239658</v>
+        <v>619.850604</v>
       </c>
       <c r="C29">
-        <v>725.2412880000001</v>
+        <v>642.54246</v>
       </c>
       <c r="D29">
-        <v>787.450252</v>
+        <v>660.028465</v>
       </c>
       <c r="E29">
-        <v>6.3</v>
+        <v>8.6</v>
       </c>
       <c r="F29">
-        <v>14.6</v>
+        <v>9.4</v>
       </c>
       <c r="G29">
-        <v>16.7</v>
+        <v>5.9</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2021,22 +2021,22 @@
         <v>187</v>
       </c>
       <c r="B30">
-        <v>496.173797</v>
+        <v>487.099633</v>
       </c>
       <c r="C30">
-        <v>502.577846</v>
+        <v>497.145637</v>
       </c>
       <c r="D30">
-        <v>516.295858</v>
+        <v>505.018524</v>
       </c>
       <c r="E30">
-        <v>3.4</v>
+        <v>8.1</v>
       </c>
       <c r="F30">
-        <v>3.2</v>
+        <v>7.7</v>
       </c>
       <c r="G30">
-        <v>3.9</v>
+        <v>6.6</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2044,22 +2044,22 @@
         <v>194</v>
       </c>
       <c r="B31">
-        <v>452.635122</v>
+        <v>449.077677</v>
       </c>
       <c r="C31">
-        <v>456.42114</v>
+        <v>457.633804</v>
       </c>
       <c r="D31">
-        <v>467.805666</v>
+        <v>464.042329</v>
       </c>
       <c r="E31">
-        <v>2.3</v>
+        <v>8.199999999999999</v>
       </c>
       <c r="F31">
-        <v>1.6</v>
+        <v>7.6</v>
       </c>
       <c r="G31">
-        <v>2.2</v>
+        <v>6.2</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2072,22 +2072,22 @@
         <v>220</v>
       </c>
       <c r="B33">
-        <v>27318.269614</v>
+        <v>25563.363348</v>
       </c>
       <c r="C33">
-        <v>27865.578575</v>
+        <v>26113.854757</v>
       </c>
       <c r="D33">
-        <v>28456.98861</v>
+        <v>26668.177726</v>
       </c>
       <c r="E33">
+        <v>12.2</v>
+      </c>
+      <c r="F33">
+        <v>12.7</v>
+      </c>
+      <c r="G33">
         <v>9.1</v>
-      </c>
-      <c r="F33">
-        <v>9</v>
-      </c>
-      <c r="G33">
-        <v>8.800000000000001</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2095,22 +2095,22 @@
         <v>227</v>
       </c>
       <c r="B34">
-        <v>8027.964</v>
+        <v>7623.973</v>
       </c>
       <c r="C34">
-        <v>8125.404</v>
+        <v>7736.722</v>
       </c>
       <c r="D34">
-        <v>8235.254000000001</v>
+        <v>7889.726</v>
       </c>
       <c r="E34">
-        <v>7.3</v>
+        <v>21.1</v>
       </c>
       <c r="F34">
-        <v>6.6</v>
+        <v>20.6</v>
       </c>
       <c r="G34">
-        <v>6.4</v>
+        <v>8.699999999999999</v>
       </c>
     </row>
   </sheetData>
